--- a/timings.xlsx
+++ b/timings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-python-powered-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-python-powered-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796D15C8-C2A1-44A5-9811-6497537EC30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA2CD71-84D3-40CB-B392-9F76A2FC526E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5147" yWindow="1747" windowWidth="19200" windowHeight="10573" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>intro</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>conclusion</t>
   </si>
 </sst>
 </file>
@@ -80,6 +89,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C812665-ABC2-4D02-A273-87627B7293FF}" name="Table1" displayName="Table1" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{785BD59B-2DB0-4764-BBE6-DA57D73C0770}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{67D04A08-1180-4762-9A01-3A7A4FA4C570}" name="section"/>
+    <tableColumn id="2" xr3:uid="{ECC4BCBD-D391-4850-AB34-5227C90D6DED}" name="time"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,20 +365,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/timings.xlsx
+++ b/timings.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-python-powered-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA2CD71-84D3-40CB-B392-9F76A2FC526E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1262C20A-3DFF-4141-9D02-52AA1BBB5FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>intro</t>
   </si>
@@ -37,6 +45,45 @@
   </si>
   <si>
     <t>conclusion</t>
+  </si>
+  <si>
+    <t>pandas write</t>
+  </si>
+  <si>
+    <t>pandas write--drill-solutions</t>
+  </si>
+  <si>
+    <t>pandas-write-drill</t>
+  </si>
+  <si>
+    <t>xlsx-writer-basics-drill</t>
+  </si>
+  <si>
+    <t>xlsx-writer-basics</t>
+  </si>
+  <si>
+    <t>xlsx-writer-basics-drill-solution</t>
+  </si>
+  <si>
+    <t>xlsx-writer-rows-columns-worksheets</t>
+  </si>
+  <si>
+    <t>xlsx-writer-rows-columns-drill</t>
+  </si>
+  <si>
+    <t>xlsx-writer-rows-columns-drill-solution</t>
+  </si>
+  <si>
+    <t>workbook-do-over</t>
+  </si>
+  <si>
+    <t>workbook-do-over-drill-solutions</t>
+  </si>
+  <si>
+    <t>workbook-do-over-drill</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
 </sst>
 </file>
@@ -92,9 +139,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C812665-ABC2-4D02-A273-87627B7293FF}" name="Table1" displayName="Table1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{785BD59B-2DB0-4764-BBE6-DA57D73C0770}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C812665-ABC2-4D02-A273-87627B7293FF}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21" xr:uid="{785BD59B-2DB0-4764-BBE6-DA57D73C0770}"/>
+  <tableColumns count="3">
+    <tableColumn id="3" xr3:uid="{B29C9A5D-0746-4A55-BB10-5D5C12FBEE65}" name="unit"/>
     <tableColumn id="1" xr3:uid="{67D04A08-1180-4762-9A01-3A7A4FA4C570}" name="section"/>
     <tableColumn id="2" xr3:uid="{ECC4BCBD-D391-4850-AB34-5227C90D6DED}" name="time"/>
   </tableColumns>
@@ -365,35 +413,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>5</v>
       </c>
     </row>

--- a/timings.xlsx
+++ b/timings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-python-powered-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-python-powered-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1262C20A-3DFF-4141-9D02-52AA1BBB5FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DCAD30-52B4-40D6-89FB-71237075249E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="133" windowWidth="25786" windowHeight="14587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>intro</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>managing-workbooks</t>
+  </si>
+  <si>
+    <t>managing-workbooks-drill</t>
+  </si>
+  <si>
+    <t>managing-workbooks-drill-solution</t>
   </si>
 </sst>
 </file>
@@ -416,15 +425,15 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -435,7 +444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -446,7 +455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -457,7 +466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -468,7 +477,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -479,7 +488,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -490,7 +499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -501,7 +510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -512,7 +521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -523,7 +532,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>1</v>
       </c>
@@ -534,7 +543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>1</v>
       </c>
@@ -545,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>1</v>
       </c>
@@ -556,7 +565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>1</v>
       </c>
@@ -567,7 +576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>1</v>
       </c>
@@ -578,12 +587,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
         <v>3</v>
       </c>

--- a/timings.xlsx
+++ b/timings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-python-powered-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-python-powered-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DCAD30-52B4-40D6-89FB-71237075249E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194619BC-0B95-4A33-8715-EF951406265A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="133" windowWidth="25786" windowHeight="14587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>intro</t>
   </si>
@@ -86,13 +86,10 @@
     <t>unit</t>
   </si>
   <si>
-    <t>managing-workbooks</t>
-  </si>
-  <si>
-    <t>managing-workbooks-drill</t>
-  </si>
-  <si>
-    <t>managing-workbooks-drill-solution</t>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Length</t>
   </si>
 </sst>
 </file>
@@ -422,18 +419,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -443,8 +440,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -454,8 +457,15 @@
       <c r="C2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>SUMIF(Table1[unit],E2,Table1[time])</f>
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -465,8 +475,15 @@
       <c r="C3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>SUMIF(Table1[unit],E3,Table1[time])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -476,8 +493,15 @@
       <c r="C4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f>SUMIF(Table1[unit],E4,Table1[time])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -488,7 +512,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -499,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -510,7 +534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -521,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -532,7 +556,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -543,7 +567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -554,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -565,7 +589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -576,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -587,40 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>3</v>
       </c>

--- a/timings.xlsx
+++ b/timings.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-python-powered-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-python-powered-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194619BC-0B95-4A33-8715-EF951406265A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BC3D89-8FC4-456B-80EF-65C3B5794BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>intro</t>
   </si>
@@ -90,6 +91,36 @@
   </si>
   <si>
     <t>Length</t>
+  </si>
+  <si>
+    <t>Add more about what tables provided</t>
+  </si>
+  <si>
+    <t>managing-workbooks</t>
+  </si>
+  <si>
+    <t>managing-workbooks-drill</t>
+  </si>
+  <si>
+    <t>managing-workbooks-drill-solution</t>
+  </si>
+  <si>
+    <t>building-excel-models</t>
+  </si>
+  <si>
+    <t>building-excel-models-drill</t>
+  </si>
+  <si>
+    <t>xlsxwriter-plus-pandas</t>
+  </si>
+  <si>
+    <t>xlsxwriter-plus-pandas-drill</t>
+  </si>
+  <si>
+    <t>xlsxwriter-plus-pandas-drill-solutions</t>
+  </si>
+  <si>
+    <t>conditional-format</t>
   </si>
 </sst>
 </file>
@@ -145,8 +176,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C812665-ABC2-4D02-A273-87627B7293FF}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21" xr:uid="{785BD59B-2DB0-4764-BBE6-DA57D73C0770}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C812665-ABC2-4D02-A273-87627B7293FF}" name="Table1" displayName="Table1" ref="A1:C27" totalsRowShown="0">
+  <autoFilter ref="A1:C27" xr:uid="{785BD59B-2DB0-4764-BBE6-DA57D73C0770}"/>
   <tableColumns count="3">
     <tableColumn id="3" xr3:uid="{B29C9A5D-0746-4A55-BB10-5D5C12FBEE65}" name="unit"/>
     <tableColumn id="1" xr3:uid="{67D04A08-1180-4762-9A01-3A7A4FA4C570}" name="section"/>
@@ -419,18 +450,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -447,7 +478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -465,7 +496,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -480,10 +511,10 @@
       </c>
       <c r="F3">
         <f>SUMIF(Table1[unit],E3,Table1[time])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -498,10 +529,10 @@
       </c>
       <c r="F4">
         <f>SUMIF(Table1[unit],E4,Table1[time])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -512,7 +543,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -523,7 +554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -534,7 +565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -545,7 +576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -556,7 +587,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>1</v>
       </c>
@@ -567,7 +598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>1</v>
       </c>
@@ -578,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>1</v>
       </c>
@@ -589,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>1</v>
       </c>
@@ -600,7 +631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>1</v>
       </c>
@@ -611,11 +642,124 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>3</v>
+      </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>5</v>
       </c>
     </row>
@@ -625,4 +769,24 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BA0458-E3B1-4601-A167-22A259664E53}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>